--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2836.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2836.xlsx
@@ -354,7 +354,7 @@
         <v>2.441096526890437</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.361374807976011</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2836.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2836.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171769760628069</v>
+        <v>1.148787617683411</v>
       </c>
       <c r="B1">
-        <v>2.441096526890437</v>
+        <v>2.281025171279907</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.682409286499023</v>
       </c>
       <c r="D1">
-        <v>2.361374807976011</v>
+        <v>2.641624212265015</v>
       </c>
       <c r="E1">
-        <v>1.236957568915954</v>
+        <v>1.24669361114502</v>
       </c>
     </row>
   </sheetData>
